--- a/Taxonomy/data/sample_eval2_reviewed.xlsx
+++ b/Taxonomy/data/sample_eval2_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavt/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Master Computer Science\Thesis\GHA_taxonomy\Taxonomy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80399B9-CA1D-7149-B013-670143CD4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508578C4-C192-463D-BB89-CBE4718CADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
     <t>https://stackoverflow.com/q/71235901</t>
   </si>
   <si>
-    <t>removed</t>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1609,20 +1609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="G424" sqref="G424"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="K390" sqref="K390"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>582</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1811</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2249</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1652</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>667</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>514</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>618</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2690</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2490</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>936</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>849</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>306</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2803</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>791</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>248</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>923</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1087</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1222</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2523</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>463</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1237</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1854</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>311</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>418</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>117</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>779</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>295</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2428</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>182</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>934</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>597</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>507</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>600</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1523</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2586</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2555</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2144</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2837</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1187</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2316</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1300</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>910</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1473</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1083</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2331</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2092</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1976</v>
       </c>
@@ -2301,14 +2301,11 @@
       <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>302</v>
       </c>
@@ -2322,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2863</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>118</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2750</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1242</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1114</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>806</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1682</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>531</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2879</v>
       </c>
@@ -2448,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1061</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1174</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1962</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2672</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2720</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1687</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>92</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2181</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>422</v>
       </c>
@@ -2574,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1327</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2112</v>
       </c>
@@ -2598,14 +2595,11 @@
       <c r="C70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>298</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2001</v>
       </c>
@@ -2633,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>566</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1779</v>
       </c>
@@ -2661,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>33</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>104</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>977</v>
       </c>
@@ -2703,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1742</v>
       </c>
@@ -2717,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2124</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1280</v>
       </c>
@@ -2745,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1918</v>
       </c>
@@ -2759,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1059</v>
       </c>
@@ -2773,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2437</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>410</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1098</v>
       </c>
@@ -2815,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1203</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1581</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1015</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1759</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1005</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1476</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>912</v>
       </c>
@@ -2913,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>317</v>
       </c>
@@ -2927,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2455</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2689</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2013</v>
       </c>
@@ -2969,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1560</v>
       </c>
@@ -2983,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1287</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1939</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2719</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1190</v>
       </c>
@@ -3039,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1197</v>
       </c>
@@ -3053,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>138</v>
       </c>
@@ -3067,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1669</v>
       </c>
@@ -3081,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2060</v>
       </c>
@@ -3095,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>628</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>547</v>
       </c>
@@ -3123,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1912</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>988</v>
       </c>
@@ -3151,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>465</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>227</v>
       </c>
@@ -3179,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>838</v>
       </c>
@@ -3193,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2194</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1533</v>
       </c>
@@ -3221,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1586</v>
       </c>
@@ -3235,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1872</v>
       </c>
@@ -3249,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1845</v>
       </c>
@@ -3263,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2614</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2481</v>
       </c>
@@ -3291,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1865</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1129</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>436</v>
       </c>
@@ -3333,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1646</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>195</v>
       </c>
@@ -3361,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2849</v>
       </c>
@@ -3375,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2740</v>
       </c>
@@ -3389,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>924</v>
       </c>
@@ -3403,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1254</v>
       </c>
@@ -3417,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2318</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2364</v>
       </c>
@@ -3445,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2315</v>
       </c>
@@ -3459,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2653</v>
       </c>
@@ -3473,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2066</v>
       </c>
@@ -3487,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1853</v>
       </c>
@@ -3501,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>836</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1099</v>
       </c>
@@ -3529,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2309</v>
       </c>
@@ -3543,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>731</v>
       </c>
@@ -3557,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>883</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2574</v>
       </c>
@@ -3585,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>722</v>
       </c>
@@ -3599,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2636</v>
       </c>
@@ -3613,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1077</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2543</v>
       </c>
@@ -3641,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>874</v>
       </c>
@@ -3655,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2765</v>
       </c>
@@ -3669,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2794</v>
       </c>
@@ -3683,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1535</v>
       </c>
@@ -3697,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1052</v>
       </c>
@@ -3711,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>997</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>480</v>
       </c>
@@ -3739,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>10</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1827</v>
       </c>
@@ -3767,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1606</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1756</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2233</v>
       </c>
@@ -3809,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1999</v>
       </c>
@@ -3823,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>989</v>
       </c>
@@ -3837,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>553</v>
       </c>
@@ -3851,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1530</v>
       </c>
@@ -3865,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>224</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1079</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>385</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1519</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1093</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>70</v>
       </c>
@@ -3949,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1710</v>
       </c>
@@ -3963,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>891</v>
       </c>
@@ -3977,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>253</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>15</v>
       </c>
@@ -4005,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2520</v>
       </c>
@@ -4019,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>701</v>
       </c>
@@ -4033,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>868</v>
       </c>
@@ -4047,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>723</v>
       </c>
@@ -4061,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1955</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>641</v>
       </c>
@@ -4089,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2606</v>
       </c>
@@ -4103,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2902</v>
       </c>
@@ -4113,14 +4107,11 @@
       <c r="C178" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D178" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1260</v>
       </c>
@@ -4134,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2255</v>
       </c>
@@ -4148,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2629</v>
       </c>
@@ -4162,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>446</v>
       </c>
@@ -4176,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>562</v>
       </c>
@@ -4190,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1230</v>
       </c>
@@ -4204,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1212</v>
       </c>
@@ -4218,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1573</v>
       </c>
@@ -4232,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>616</v>
       </c>
@@ -4246,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1794</v>
       </c>
@@ -4260,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>719</v>
       </c>
@@ -4274,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2422</v>
       </c>
@@ -4288,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2361</v>
       </c>
@@ -4302,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>179</v>
       </c>
@@ -4316,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>333</v>
       </c>
@@ -4330,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>746</v>
       </c>
@@ -4344,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>217</v>
       </c>
@@ -4358,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1898</v>
       </c>
@@ -4372,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2677</v>
       </c>
@@ -4386,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2183</v>
       </c>
@@ -4400,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1697</v>
       </c>
@@ -4414,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2828</v>
       </c>
@@ -4428,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1737</v>
       </c>
@@ -4442,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>361</v>
       </c>
@@ -4456,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>252</v>
       </c>
@@ -4470,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>712</v>
       </c>
@@ -4484,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1768</v>
       </c>
@@ -4498,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2687</v>
       </c>
@@ -4512,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2167</v>
       </c>
@@ -4526,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2707</v>
       </c>
@@ -4540,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2812</v>
       </c>
@@ -4554,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1070</v>
       </c>
@@ -4568,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>672</v>
       </c>
@@ -4582,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1211</v>
       </c>
@@ -4596,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2430</v>
       </c>
@@ -4610,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>23</v>
       </c>
@@ -4624,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2468</v>
       </c>
@@ -4638,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>663</v>
       </c>
@@ -4652,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>124</v>
       </c>
@@ -4666,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>899</v>
       </c>
@@ -4680,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2147</v>
       </c>
@@ -4694,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2017</v>
       </c>
@@ -4708,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>933</v>
       </c>
@@ -4722,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1604</v>
       </c>
@@ -4736,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1051</v>
       </c>
@@ -4750,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2028</v>
       </c>
@@ -4764,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2413</v>
       </c>
@@ -4778,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>558</v>
       </c>
@@ -4792,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2143</v>
       </c>
@@ -4806,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1047</v>
       </c>
@@ -4820,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2797</v>
       </c>
@@ -4834,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1852</v>
       </c>
@@ -4848,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1238</v>
       </c>
@@ -4862,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1627</v>
       </c>
@@ -4876,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>332</v>
       </c>
@@ -4890,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2134</v>
       </c>
@@ -4900,14 +4891,11 @@
       <c r="C234" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D234" s="3">
-        <v>0</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="D234" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1867</v>
       </c>
@@ -4921,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2527</v>
       </c>
@@ -4935,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>380</v>
       </c>
@@ -4949,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>599</v>
       </c>
@@ -4963,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>461</v>
       </c>
@@ -4977,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2587</v>
       </c>
@@ -4991,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1235</v>
       </c>
@@ -5005,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2615</v>
       </c>
@@ -5019,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1806</v>
       </c>
@@ -5033,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>156</v>
       </c>
@@ -5047,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2113</v>
       </c>
@@ -5061,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>192</v>
       </c>
@@ -5075,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2742</v>
       </c>
@@ -5089,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2454</v>
       </c>
@@ -5103,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2682</v>
       </c>
@@ -5117,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>9</v>
       </c>
@@ -5131,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1009</v>
       </c>
@@ -5145,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1151</v>
       </c>
@@ -5159,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2487</v>
       </c>
@@ -5173,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2477</v>
       </c>
@@ -5187,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>778</v>
       </c>
@@ -5201,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>686</v>
       </c>
@@ -5215,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>30</v>
       </c>
@@ -5229,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2634</v>
       </c>
@@ -5243,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>69</v>
       </c>
@@ -5257,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>969</v>
       </c>
@@ -5271,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2201</v>
       </c>
@@ -5285,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>263</v>
       </c>
@@ -5299,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1055</v>
       </c>
@@ -5313,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2639</v>
       </c>
@@ -5327,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2198</v>
       </c>
@@ -5341,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>543</v>
       </c>
@@ -5355,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>898</v>
       </c>
@@ -5369,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1555</v>
       </c>
@@ -5383,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>259</v>
       </c>
@@ -5397,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2077</v>
       </c>
@@ -5407,14 +5395,11 @@
       <c r="C270" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D270" s="3">
-        <v>0</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="D270" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>196</v>
       </c>
@@ -5428,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1262</v>
       </c>
@@ -5442,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2374</v>
       </c>
@@ -5456,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2632</v>
       </c>
@@ -5470,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>784</v>
       </c>
@@ -5484,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>716</v>
       </c>
@@ -5498,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5512,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1922</v>
       </c>
@@ -5526,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2132</v>
       </c>
@@ -5540,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2164</v>
       </c>
@@ -5554,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>148</v>
       </c>
@@ -5568,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>496</v>
       </c>
@@ -5582,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2026</v>
       </c>
@@ -5596,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>670</v>
       </c>
@@ -5610,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2777</v>
       </c>
@@ -5624,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2613</v>
       </c>
@@ -5638,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1385</v>
       </c>
@@ -5652,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2703</v>
       </c>
@@ -5666,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>661</v>
       </c>
@@ -5680,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>396</v>
       </c>
@@ -5694,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1426</v>
       </c>
@@ -5708,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2005</v>
       </c>
@@ -5722,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2434</v>
       </c>
@@ -5736,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1884</v>
       </c>
@@ -5750,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2526</v>
       </c>
@@ -5764,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2063</v>
       </c>
@@ -5778,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1773</v>
       </c>
@@ -5792,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>352</v>
       </c>
@@ -5806,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2815</v>
       </c>
@@ -5820,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2459</v>
       </c>
@@ -5834,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>545</v>
       </c>
@@ -5848,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2696</v>
       </c>
@@ -5862,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>491</v>
       </c>
@@ -5876,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1724</v>
       </c>
@@ -5890,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1027</v>
       </c>
@@ -5904,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>245</v>
       </c>
@@ -5918,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1454</v>
       </c>
@@ -5932,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2789</v>
       </c>
@@ -5946,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2747</v>
       </c>
@@ -5960,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1726</v>
       </c>
@@ -5974,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>991</v>
       </c>
@@ -5988,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1760</v>
       </c>
@@ -6002,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2285</v>
       </c>
@@ -6016,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1548</v>
       </c>
@@ -6030,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2628</v>
       </c>
@@ -6044,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>569</v>
       </c>
@@ -6058,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>53</v>
       </c>
@@ -6072,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2701</v>
       </c>
@@ -6086,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2771</v>
       </c>
@@ -6100,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2346</v>
       </c>
@@ -6114,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>472</v>
       </c>
@@ -6128,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>944</v>
       </c>
@@ -6142,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2188</v>
       </c>
@@ -6156,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>878</v>
       </c>
@@ -6170,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1952</v>
       </c>
@@ -6184,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2625</v>
       </c>
@@ -6198,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1816</v>
       </c>
@@ -6212,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>882</v>
       </c>
@@ -6226,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2286</v>
       </c>
@@ -6240,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2283</v>
       </c>
@@ -6254,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1147</v>
       </c>
@@ -6268,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>320</v>
       </c>
@@ -6282,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2241</v>
       </c>
@@ -6296,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1611</v>
       </c>
@@ -6310,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2734</v>
       </c>
@@ -6324,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2038</v>
       </c>
@@ -6338,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2445</v>
       </c>
@@ -6352,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2293</v>
       </c>
@@ -6366,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2852</v>
       </c>
@@ -6380,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>98</v>
       </c>
@@ -6394,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>615</v>
       </c>
@@ -6408,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>675</v>
       </c>
@@ -6422,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1002</v>
       </c>
@@ -6436,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>296</v>
       </c>
@@ -6450,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>399</v>
       </c>
@@ -6464,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>202</v>
       </c>
@@ -6478,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2416</v>
       </c>
@@ -6492,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2881</v>
       </c>
@@ -6506,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2714</v>
       </c>
@@ -6520,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>841</v>
       </c>
@@ -6534,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>793</v>
       </c>
@@ -6548,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>909</v>
       </c>
@@ -6562,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>648</v>
       </c>
@@ -6576,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>621</v>
       </c>
@@ -6590,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>867</v>
       </c>
@@ -6604,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>1499</v>
       </c>
@@ -6618,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>1572</v>
       </c>
@@ -6632,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2621</v>
       </c>
@@ -6646,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>1675</v>
       </c>
@@ -6660,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2216</v>
       </c>
@@ -6674,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>353</v>
       </c>
@@ -6688,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>1931</v>
       </c>
@@ -6702,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>527</v>
       </c>
@@ -6716,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>1025</v>
       </c>
@@ -6730,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2213</v>
       </c>
@@ -6744,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>169</v>
       </c>
@@ -6758,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>76</v>
       </c>
@@ -6772,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2380</v>
       </c>
@@ -6786,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2724</v>
       </c>
@@ -6800,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>704</v>
       </c>
@@ -6814,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>1494</v>
       </c>
@@ -6828,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>289</v>
       </c>
@@ -6842,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>1598</v>
       </c>
@@ -6856,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2570</v>
       </c>
@@ -6870,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>1968</v>
       </c>
@@ -6884,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>1665</v>
       </c>
@@ -6898,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>1224</v>
       </c>
@@ -6912,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>727</v>
       </c>
@@ -6926,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2349</v>
       </c>
@@ -6940,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2674</v>
       </c>
@@ -6954,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2778</v>
       </c>
@@ -6968,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>483</v>
       </c>
@@ -6982,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2836</v>
       </c>
@@ -6996,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2567</v>
       </c>
@@ -7010,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>1981</v>
       </c>
@@ -7020,14 +7005,11 @@
       <c r="C385" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D385" s="3">
-        <v>0</v>
-      </c>
-      <c r="E385" t="s">
+      <c r="D385" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>905</v>
       </c>
@@ -7041,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1673</v>
       </c>
@@ -7055,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>1914</v>
       </c>
@@ -7069,7 +7051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>1505</v>
       </c>
@@ -7083,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2515</v>
       </c>
@@ -7097,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>137</v>
       </c>
@@ -7111,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2798</v>
       </c>
@@ -7125,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>1626</v>
       </c>
@@ -7139,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>1544</v>
       </c>
@@ -7153,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2557</v>
       </c>
@@ -7167,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2145</v>
       </c>
@@ -7181,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>1210</v>
       </c>
@@ -7195,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2142</v>
       </c>
@@ -7209,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2225</v>
       </c>
@@ -7223,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>913</v>
       </c>
@@ -7237,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>1343</v>
       </c>
